--- a/medicine/Pharmacie/Pindolol/Pindolol.xlsx
+++ b/medicine/Pharmacie/Pindolol/Pindolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pindolol est un bêta-bloquant non sélectif utilisé dans le traitement de l'hypertension et de l'angine de poitrine[1],[2]. C'est également un antagoniste du récepteur de la sérotonine 5-HT1A, il a fait l'objet de recherches en tant qu'inhibiteurs sélectifs de la recapture de la sérotonine pour traiter la dépression[3],[4],[5].
+Le pindolol est un bêta-bloquant non sélectif utilisé dans le traitement de l'hypertension et de l'angine de poitrine,. C'est également un antagoniste du récepteur de la sérotonine 5-HT1A, il a fait l'objet de recherches en tant qu'inhibiteurs sélectifs de la recapture de la sérotonine pour traiter la dépression.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pindolol a été breveté par l'entreprise suisse Sandoz (aujourd'hui Novartis) en 1969 et a été lancé aux États-Unis en 1977[6].
-Il n'est plus utilisé aujourd'hui, notamment en raison de l'absence de générique, et des faibles preuves d'efficacité[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pindolol a été breveté par l'entreprise suisse Sandoz (aujourd'hui Novartis) en 1969 et a été lancé aux États-Unis en 1977.
+Il n'est plus utilisé aujourd'hui, notamment en raison de l'absence de générique, et des faibles preuves d'efficacité.
 </t>
         </is>
       </c>
